--- a/DataSource/Datas/#role.xlsx
+++ b/DataSource/Datas/#role.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="22">
   <si>
     <t>##var</t>
   </si>
@@ -41,76 +41,58 @@
     <t>equip_id</t>
   </si>
   <si>
+    <t>attr_group</t>
+  </si>
+  <si>
+    <t>##group</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>##</t>
+  </si>
+  <si>
+    <t>名称</t>
+  </si>
+  <si>
+    <t>装备Id</t>
+  </si>
+  <si>
+    <t>属性组</t>
+  </si>
+  <si>
+    <t>##type</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>AttrGroup</t>
+  </si>
+  <si>
+    <t>atk</t>
+  </si>
+  <si>
+    <t>def</t>
+  </si>
+  <si>
+    <t>hp</t>
+  </si>
+  <si>
+    <t>energy</t>
+  </si>
+  <si>
     <t>speed</t>
   </si>
   <si>
-    <t>atk</t>
-  </si>
-  <si>
-    <t>def</t>
-  </si>
-  <si>
-    <t>hp</t>
-  </si>
-  <si>
-    <t>##group</t>
-  </si>
-  <si>
-    <t>c</t>
-  </si>
-  <si>
-    <t>##</t>
-  </si>
-  <si>
-    <t>名称</t>
-  </si>
-  <si>
-    <t>装备Id</t>
-  </si>
-  <si>
-    <t>速度</t>
-  </si>
-  <si>
-    <t>攻击</t>
-  </si>
-  <si>
-    <t>防御</t>
-  </si>
-  <si>
-    <t>生命</t>
-  </si>
-  <si>
-    <t>##type</t>
-  </si>
-  <si>
-    <t>int</t>
-  </si>
-  <si>
-    <t>float</t>
-  </si>
-  <si>
-    <t>Speed</t>
-  </si>
-  <si>
-    <t>Attr</t>
-  </si>
-  <si>
-    <t>v</t>
-  </si>
-  <si>
-    <t>v_final</t>
-  </si>
-  <si>
-    <t>v_base</t>
-  </si>
-  <si>
-    <t>v_affect</t>
-  </si>
-  <si>
-    <t>p_affect</t>
-  </si>
-  <si>
-    <t>dirty</t>
+    <t>zzz</t>
+  </si>
+  <si>
+    <t>aaa</t>
   </si>
 </sst>
 </file>
@@ -726,7 +708,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -735,9 +717,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1058,13 +1037,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Y9"/>
+  <dimension ref="A1:Z7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="X11" sqref="X11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="6"/>
   <cols>
     <col min="1" max="1" width="8.625" customWidth="1"/>
     <col min="2" max="2" width="3.375" customWidth="1"/>
@@ -1074,25 +1053,25 @@
     <col min="6" max="6" width="6.875" customWidth="1"/>
     <col min="7" max="7" width="7.5" customWidth="1"/>
     <col min="8" max="8" width="7.75" customWidth="1"/>
-    <col min="9" max="9" width="5" customWidth="1"/>
-    <col min="10" max="10" width="6.25" customWidth="1"/>
-    <col min="11" max="11" width="6.875" customWidth="1"/>
-    <col min="12" max="12" width="7.5" customWidth="1"/>
-    <col min="13" max="13" width="7.75" customWidth="1"/>
-    <col min="14" max="14" width="5" customWidth="1"/>
-    <col min="15" max="15" width="6.25" customWidth="1"/>
-    <col min="16" max="16" width="6.875" customWidth="1"/>
-    <col min="17" max="17" width="7.5" customWidth="1"/>
-    <col min="18" max="18" width="7.75" customWidth="1"/>
-    <col min="19" max="19" width="5" customWidth="1"/>
-    <col min="20" max="20" width="6.25" customWidth="1"/>
-    <col min="21" max="21" width="6.875" customWidth="1"/>
-    <col min="22" max="22" width="7.5" customWidth="1"/>
-    <col min="23" max="23" width="7.75" customWidth="1"/>
-    <col min="24" max="24" width="5" customWidth="1"/>
+    <col min="9" max="10" width="5" customWidth="1"/>
+    <col min="11" max="11" width="6.25" customWidth="1"/>
+    <col min="12" max="12" width="6.875" customWidth="1"/>
+    <col min="13" max="13" width="7.5" customWidth="1"/>
+    <col min="14" max="14" width="7.75" customWidth="1"/>
+    <col min="15" max="15" width="5" customWidth="1"/>
+    <col min="16" max="16" width="6.25" customWidth="1"/>
+    <col min="17" max="17" width="6.875" customWidth="1"/>
+    <col min="18" max="18" width="7.5" customWidth="1"/>
+    <col min="19" max="19" width="7.75" customWidth="1"/>
+    <col min="20" max="20" width="5" customWidth="1"/>
+    <col min="21" max="21" width="6.25" customWidth="1"/>
+    <col min="22" max="22" width="6.875" customWidth="1"/>
+    <col min="23" max="23" width="7.5" customWidth="1"/>
+    <col min="24" max="24" width="7.75" customWidth="1"/>
+    <col min="25" max="25" width="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25">
+    <row r="1" spans="1:26">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1112,310 +1091,213 @@
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1"/>
+      <c r="S1" s="1"/>
+      <c r="T1" s="1"/>
+      <c r="U1" s="1"/>
+      <c r="V1" s="1"/>
+      <c r="W1" s="1"/>
+      <c r="X1" s="1"/>
+      <c r="Y1" s="1"/>
+      <c r="Z1" s="1"/>
+    </row>
+    <row r="2" spans="1:26">
+      <c r="A2" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2" t="s">
+      <c r="C2" t="s">
         <v>6</v>
       </c>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="2"/>
-      <c r="S1" s="2"/>
-      <c r="T1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="U1" s="2"/>
-      <c r="V1" s="2"/>
-      <c r="W1" s="2"/>
-      <c r="X1" s="2"/>
-      <c r="Y1" s="3"/>
-    </row>
-    <row r="2" spans="1:25">
-      <c r="A2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" t="s">
-        <v>9</v>
-      </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
-      <c r="J2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
-      <c r="O2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="P2" s="2"/>
-      <c r="Q2" s="2"/>
-      <c r="R2" s="2"/>
-      <c r="S2" s="2"/>
-      <c r="T2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="U2" s="2"/>
-      <c r="V2" s="2"/>
-      <c r="W2" s="2"/>
-      <c r="X2" s="2"/>
-      <c r="Y2" s="3"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="1"/>
+      <c r="S2" s="1"/>
+      <c r="T2" s="1"/>
+      <c r="U2" s="1"/>
+      <c r="V2" s="1"/>
+      <c r="W2" s="1"/>
+      <c r="X2" s="1"/>
+      <c r="Y2" s="1"/>
+      <c r="Z2" s="1"/>
     </row>
-    <row r="3" spans="1:25">
+    <row r="3" spans="1:26">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B3" t="s">
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
-      <c r="J3" s="2" t="s">
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+      <c r="Q3" s="1"/>
+      <c r="R3" s="1"/>
+      <c r="S3" s="1"/>
+      <c r="T3" s="1"/>
+      <c r="U3" s="1"/>
+      <c r="V3" s="1"/>
+      <c r="W3" s="1"/>
+      <c r="X3" s="1"/>
+      <c r="Y3" s="1"/>
+      <c r="Z3" s="1"/>
+    </row>
+    <row r="4" spans="1:26">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>14</v>
-      </c>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2"/>
-      <c r="O3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="P3" s="2"/>
-      <c r="Q3" s="2"/>
-      <c r="R3" s="2"/>
-      <c r="S3" s="2"/>
-      <c r="T3" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="U3" s="2"/>
-      <c r="V3" s="2"/>
-      <c r="W3" s="2"/>
-      <c r="X3" s="2"/>
-      <c r="Y3" s="3"/>
-    </row>
-    <row r="4" spans="1:25">
-      <c r="A4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>20</v>
       </c>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
-      <c r="J4" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2"/>
-      <c r="N4" s="2"/>
-      <c r="O4" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="P4" s="2"/>
-      <c r="Q4" s="2"/>
-      <c r="R4" s="2"/>
-      <c r="S4" s="2"/>
-      <c r="T4" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="U4" s="2"/>
-      <c r="V4" s="2"/>
-      <c r="W4" s="2"/>
-      <c r="X4" s="2"/>
-      <c r="Y4" s="3"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+      <c r="Q4" s="1"/>
+      <c r="R4" s="1"/>
+      <c r="S4" s="1"/>
+      <c r="T4" s="1"/>
+      <c r="U4" s="1"/>
+      <c r="V4" s="1"/>
+      <c r="W4" s="1"/>
+      <c r="X4" s="1"/>
+      <c r="Y4" s="1"/>
+      <c r="Z4" s="1"/>
     </row>
-    <row r="5" spans="1:24">
+    <row r="5" spans="1:9">
       <c r="A5" t="s">
         <v>0</v>
       </c>
-      <c r="E5" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" t="s">
-        <v>23</v>
-      </c>
-      <c r="K5" t="s">
-        <v>24</v>
-      </c>
-      <c r="L5" t="s">
-        <v>25</v>
-      </c>
-      <c r="M5" t="s">
-        <v>26</v>
-      </c>
-      <c r="N5" t="s">
-        <v>27</v>
-      </c>
-      <c r="O5" t="s">
-        <v>23</v>
-      </c>
-      <c r="P5" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>25</v>
-      </c>
-      <c r="R5" t="s">
-        <v>26</v>
-      </c>
-      <c r="S5" t="s">
-        <v>27</v>
-      </c>
-      <c r="T5" t="s">
-        <v>23</v>
-      </c>
-      <c r="U5" t="s">
-        <v>24</v>
-      </c>
-      <c r="V5" t="s">
-        <v>25</v>
-      </c>
-      <c r="W5" t="s">
-        <v>26</v>
-      </c>
-      <c r="X5" t="s">
-        <v>27</v>
+      <c r="E5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H5" t="s">
+        <v>18</v>
+      </c>
+      <c r="I5" t="s">
+        <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
-      <c r="A6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E6" s="2" t="s">
+    <row r="6" spans="2:9">
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>100</v>
+      </c>
+      <c r="F6">
+        <v>120</v>
+      </c>
+      <c r="G6">
+        <v>3000</v>
+      </c>
+      <c r="H6">
+        <v>100</v>
+      </c>
+      <c r="I6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9">
+      <c r="B7">
+        <v>2</v>
+      </c>
+      <c r="C7" t="s">
         <v>21</v>
       </c>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7" t="s">
-        <v>0</v>
-      </c>
-      <c r="E7" t="s">
-        <v>23</v>
-      </c>
-      <c r="F7" t="s">
-        <v>24</v>
-      </c>
-      <c r="G7" t="s">
-        <v>25</v>
-      </c>
-      <c r="H7" t="s">
-        <v>26</v>
-      </c>
-      <c r="I7" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="8" spans="2:21">
-      <c r="B8">
-        <v>1</v>
-      </c>
-      <c r="C8">
-        <v>3.5</v>
-      </c>
-      <c r="D8">
-        <v>1</v>
-      </c>
-      <c r="F8">
-        <v>40</v>
-      </c>
-      <c r="K8">
-        <v>40</v>
-      </c>
-      <c r="P8">
-        <v>40</v>
-      </c>
-      <c r="U8">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="9" spans="2:21">
-      <c r="B9">
+      <c r="D7">
         <v>2</v>
       </c>
-      <c r="C9">
-        <v>554</v>
-      </c>
-      <c r="D9">
-        <v>2</v>
-      </c>
-      <c r="F9">
-        <v>40</v>
-      </c>
-      <c r="K9">
-        <v>40</v>
-      </c>
-      <c r="P9">
-        <v>40</v>
-      </c>
-      <c r="U9">
-        <v>40</v>
+      <c r="E7">
+        <v>200</v>
+      </c>
+      <c r="F7">
+        <v>240</v>
+      </c>
+      <c r="G7">
+        <v>6000</v>
+      </c>
+      <c r="H7">
+        <v>160</v>
+      </c>
+      <c r="I7">
+        <v>140</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="18">
+  <mergeCells count="4">
     <mergeCell ref="E1:I1"/>
-    <mergeCell ref="J1:N1"/>
-    <mergeCell ref="O1:S1"/>
-    <mergeCell ref="T1:X1"/>
     <mergeCell ref="E2:I2"/>
-    <mergeCell ref="J2:N2"/>
-    <mergeCell ref="O2:S2"/>
-    <mergeCell ref="T2:X2"/>
     <mergeCell ref="E3:I3"/>
-    <mergeCell ref="J3:N3"/>
-    <mergeCell ref="O3:S3"/>
-    <mergeCell ref="T3:X3"/>
     <mergeCell ref="E4:I4"/>
-    <mergeCell ref="J4:N4"/>
-    <mergeCell ref="O4:S4"/>
-    <mergeCell ref="T4:X4"/>
-    <mergeCell ref="E5:I5"/>
-    <mergeCell ref="E6:I6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
